--- a/EXCEL_OUPUT/TMCA Annual Report FY22 (signed) FINAL.xlsx
+++ b/EXCEL_OUPUT/TMCA Annual Report FY22 (signed) FINAL.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="853">
   <si>
     <t>John O'Donoghue</t>
   </si>
@@ -2023,7 +2023,7 @@
     <t>net of tax, from the proceeds.</t>
   </si>
   <si>
-    <t>Directly attributable costs that are capitalised as part of the software include employee costs and an appropriate</t>
+    <t>Directly attributable costs that are</t>
   </si>
   <si>
     <t>is ready for use.</t>
@@ -2080,13 +2080,22 @@
     <t>(v) Amortisation methods and useful lives</t>
   </si>
   <si>
-    <t>IT development and software 8 years</t>
-  </si>
-  <si>
-    <t>Customers contracts 10 years</t>
-  </si>
-  <si>
-    <t>or sell the</t>
+    <t>IT development and software</t>
+  </si>
+  <si>
+    <t>Customers contracts</t>
+  </si>
+  <si>
+    <t>capitalised as part of the software include employee costs and</t>
+  </si>
+  <si>
+    <t>8 years</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>an appropriate</t>
   </si>
   <si>
     <t>Motor vehicle</t>
@@ -7638,13 +7647,13 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -7657,47 +7666,62 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>660</v>
       </c>
       <c r="C4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>661</v>
       </c>
       <c r="C5" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>663</v>
       </c>
       <c r="C7" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>664</v>
       </c>
@@ -7705,26 +7729,38 @@
         <v>664</v>
       </c>
       <c r="D8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>664</v>
+      </c>
+      <c r="E8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>664</v>
       </c>
       <c r="C9" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>665</v>
       </c>
       <c r="C10" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>654</v>
       </c>
@@ -7732,18 +7768,21 @@
         <v>654</v>
       </c>
       <c r="C11" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="D11" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>675</v>
+      </c>
+      <c r="E11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>667</v>
       </c>
@@ -7753,8 +7792,11 @@
       <c r="D13" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>655</v>
       </c>
@@ -7762,12 +7804,12 @@
         <v>655</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>669</v>
       </c>
@@ -7777,8 +7819,11 @@
       <c r="D16" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>656</v>
       </c>
@@ -7791,18 +7836,24 @@
       <c r="D17" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>657</v>
       </c>
@@ -7815,15 +7866,24 @@
       <c r="D20" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>674</v>
+      </c>
+      <c r="C22" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -7855,7 +7915,7 @@
         <v>564</v>
       </c>
       <c r="C2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7863,23 +7923,23 @@
         <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C4" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C5" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -7908,7 +7968,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="C2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7916,10 +7976,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7927,10 +7987,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C4" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7938,10 +7998,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C5" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7949,10 +8009,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C6" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7960,10 +8020,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7971,10 +8031,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C8" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7985,7 +8045,7 @@
         <v>531</v>
       </c>
       <c r="C9" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7993,10 +8053,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C10" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8004,10 +8064,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C11" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8015,10 +8075,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C12" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8029,7 +8089,7 @@
         <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8040,7 +8100,7 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8048,10 +8108,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C15" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8059,10 +8119,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C16" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8070,10 +8130,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C17" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8081,10 +8141,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C18" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8095,7 +8155,7 @@
         <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8103,10 +8163,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C20" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8114,10 +8174,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C21" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8128,7 +8188,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8136,10 +8196,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C23" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8150,7 +8210,7 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8161,7 +8221,7 @@
         <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8169,10 +8229,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C26" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8180,10 +8240,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C27" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8191,10 +8251,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C28" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8202,10 +8262,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C29" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8213,10 +8273,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C30" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8224,10 +8284,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C31" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -8270,45 +8330,45 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C4" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D4" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C5" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D5" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="D6" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="D7" t="s">
         <v>626</v>
@@ -8316,89 +8376,89 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C8" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D8" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C9" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D9" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C10" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D10" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B12" t="s">
         <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D12" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C13" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="D13" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C14" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="D14" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C16" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="D16" t="s">
         <v>197</v>
@@ -8406,10 +8466,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B17" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C17" t="s">
         <v>133</v>
@@ -8420,43 +8480,43 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C18" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D18" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C19" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D19" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C20" t="s">
         <v>561</v>
       </c>
       <c r="D20" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B21" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C21" t="s">
         <v>560</v>
@@ -8503,18 +8563,18 @@
         <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -8523,7 +8583,7 @@
         <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8531,7 +8591,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E4" t="s">
         <v>136</v>
@@ -8539,13 +8599,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B5" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D5" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E5" t="s">
         <v>137</v>
@@ -8553,26 +8613,26 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D6" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="E6" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B8" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D8" t="s">
         <v>138</v>
@@ -8583,7 +8643,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -8592,12 +8652,12 @@
         <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -8606,7 +8666,7 @@
         <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8622,10 +8682,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D12" t="s">
         <v>132</v>
@@ -8636,21 +8696,21 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="D13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="E13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B14" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="D14" t="s">
         <v>133</v>
@@ -8661,7 +8721,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -8670,7 +8730,7 @@
         <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -8721,7 +8781,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8731,10 +8791,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B6" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C6" t="s">
         <v>560</v>
@@ -8748,7 +8808,7 @@
         <v>531</v>
       </c>
       <c r="B7" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C7" t="s">
         <v>533</v>
@@ -8759,10 +8819,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B8" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C8" t="s">
         <v>508</v>
@@ -8773,10 +8833,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B9" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C9" t="s">
         <v>527</v>
@@ -8801,7 +8861,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B11" t="s">
         <v>179</v>
@@ -8815,13 +8875,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D12" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8848,7 +8908,7 @@
         <v>267</v>
       </c>
       <c r="B15" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C15" t="s">
         <v>430</v>
@@ -8859,7 +8919,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B16" t="s">
         <v>179</v>
@@ -8873,10 +8933,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B17" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C17" t="s">
         <v>382</v>
@@ -8887,38 +8947,38 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B18" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C18" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="D18" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B19" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C19" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C20" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D20" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8926,15 +8986,15 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D21" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8944,10 +9004,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B24" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C24" t="s">
         <v>301</v>
@@ -8961,10 +9021,10 @@
         <v>356</v>
       </c>
       <c r="C25" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D25" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8972,10 +9032,10 @@
         <v>357</v>
       </c>
       <c r="B26" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C26" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D26" t="s">
         <v>423</v>
@@ -8983,10 +9043,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B27" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D27" t="s">
         <v>243</v>
@@ -8997,7 +9057,7 @@
         <v>354</v>
       </c>
       <c r="B28" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C28" t="s">
         <v>326</v>
@@ -9008,24 +9068,24 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C29" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D29" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C30" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D30" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9035,10 +9095,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B32" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C32" t="s">
         <v>304</v>
@@ -9052,10 +9112,10 @@
         <v>357</v>
       </c>
       <c r="B33" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C33" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D33" t="s">
         <v>424</v>
@@ -9066,7 +9126,7 @@
         <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C34" t="s">
         <v>330</v>
@@ -9077,13 +9137,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C35" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D35" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -9091,10 +9151,10 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D36" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -9102,15 +9162,15 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D37" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -9118,7 +9178,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -9132,7 +9192,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C40" t="s">
         <v>134</v>
@@ -9146,10 +9206,10 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D41" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -9200,10 +9260,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B4" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C4" t="s">
         <v>624</v>
@@ -9214,10 +9274,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B5" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C5" t="s">
         <v>623</v>
@@ -9228,45 +9288,45 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C7" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D7" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C9" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D9" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C10" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D10" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9274,18 +9334,18 @@
         <v>569</v>
       </c>
       <c r="C11" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D11" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B12" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C12" t="s">
         <v>553</v>
@@ -9296,16 +9356,16 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B13" t="s">
         <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D13" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9321,20 +9381,20 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C17" t="s">
         <v>132</v>
@@ -9345,7 +9405,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C18" t="s">
         <v>132</v>
@@ -9356,13 +9416,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C19" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="D19" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
